--- a/Ejercicio 5.xlsx
+++ b/Ejercicio 5.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-345" yWindow="510" windowWidth="28785" windowHeight="12750" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Programa" sheetId="1" r:id="rId1"/>
     <sheet name="Tail Recursive" sheetId="2" r:id="rId2"/>
     <sheet name="Maquina" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>length = proc {$ Xs R}</t>
   </si>
@@ -154,23 +153,170 @@
     <t>&lt;sp_1&gt;</t>
   </si>
   <si>
-    <t>&lt;sp_2-2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sp_1-1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sp_2-3&gt;</t>
-  </si>
-  <si>
     <t>La bentaja del tail recurcion es que altener la llamda recursiba al final el stack que se apila es muy chico</t>
+  </si>
+  <si>
+    <t>PASO 6</t>
+  </si>
+  <si>
+    <t>&lt;sp_2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp_3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;,E''</t>
+  </si>
+  <si>
+    <t>E''={L-&gt;x1, R-&gt;r, A-&gt;b}</t>
+  </si>
+  <si>
+    <t>&lt;sp_3&gt;,E''</t>
+  </si>
+  <si>
+    <t>PASO 7</t>
+  </si>
+  <si>
+    <t>E'''={L-&gt;x1, R-&gt;r, A-&gt;b, U-&gt;u1}</t>
+  </si>
+  <si>
+    <t>PASO 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 9 </t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;,E4</t>
+  </si>
+  <si>
+    <t>E4={L-&gt;t1, R-&gt;r, A-&gt;u1}</t>
+  </si>
+  <si>
+    <t>PASO 10</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-2&gt;, E'''</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-1&gt; E'''</t>
+  </si>
+  <si>
+    <t>E5={L-&gt;t1, R-&gt;r, A-&gt;u1, U-&gt;u2}</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-1&gt;, E5</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-2&gt;, E5</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4], u1 = 1}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4], u1}</t>
+  </si>
+  <si>
+    <t>PASO 11</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2}</t>
+  </si>
+  <si>
+    <t>PASO 12</t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;,E6</t>
+  </si>
+  <si>
+    <t>PASO 13</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-1&gt;, E7</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-2&gt;, E7</t>
+  </si>
+  <si>
+    <t>E7={L-&gt;t2, R-&gt;r, A-&gt;u2, U-&gt;u3}</t>
+  </si>
+  <si>
+    <t>PASO 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 15 </t>
+  </si>
+  <si>
+    <t>E6={L-&gt;t2, R-&gt;r, A-&gt;u2}</t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;,E8</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3}</t>
+  </si>
+  <si>
+    <t>E8={L-&gt;t3, R-&gt;r, A-&gt;u3}</t>
+  </si>
+  <si>
+    <t>PASO 16</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-1&gt;, E9</t>
+  </si>
+  <si>
+    <t>&lt;sp_3-2&gt;, E9</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 17 </t>
+  </si>
+  <si>
+    <t>E9={L-&gt;t3, R-&gt;r, A-&gt;u3, U-&gt;u4}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;,E10</t>
+  </si>
+  <si>
+    <t>E10={L-&gt;t4, R-&gt;r, A-&gt;u4}</t>
+  </si>
+  <si>
+    <t>PASO 18</t>
+  </si>
+  <si>
+    <t>PASO 19</t>
+  </si>
+  <si>
+    <t>&lt;sp_2&gt;,E10</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r=4,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
+  </si>
+  <si>
+    <t>PASO 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +330,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +370,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -238,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,6 +422,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -353,7 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -388,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,21 +726,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -586,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -605,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -615,20 +777,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -637,13 +799,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -659,21 +821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -681,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -693,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="D4" t="s">
@@ -704,7 +866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="E5" t="s">
@@ -713,10 +875,10 @@
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
       <c r="J5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="D6" t="s">
@@ -725,7 +887,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="E7" t="s">
@@ -733,8 +895,11 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="F8" t="s">
@@ -742,11 +907,13 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7"/>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="10"/>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="F9" t="s">
@@ -754,11 +921,12 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7"/>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="10"/>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="E10" t="s">
@@ -766,8 +934,9 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
@@ -776,7 +945,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" t="s">
@@ -784,7 +953,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" t="s">
@@ -794,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" t="s">
@@ -804,44 +973,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H3:H12"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -852,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -866,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -880,7 +1054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -888,17 +1062,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -909,12 +1083,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -925,12 +1099,206 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
